--- a/Results/Results/result analysis_Latest.xlsx
+++ b/Results/Results/result analysis_Latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RMAT24" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="29">
   <si>
     <t>Graph name:</t>
   </si>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -277,18 +277,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,19 +611,19 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
@@ -646,7 +647,7 @@
       <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -679,7 +680,7 @@
         <f>H7+I7</f>
         <v>496.363</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="23">
         <v>506.02699999999999</v>
       </c>
       <c r="L7" s="10">
@@ -699,10 +700,12 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="25">
+      <c r="K8" s="23">
         <v>541.94799999999998</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="10">
+        <v>1919.7928910000001</v>
+      </c>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -715,10 +718,12 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="25">
+      <c r="K9" s="23">
         <v>546.90700000000004</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="10">
+        <v>1920.8581449999999</v>
+      </c>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -738,10 +743,12 @@
         <v>164.47200000000001</v>
       </c>
       <c r="J10" s="13">
-        <f t="shared" ref="J10:J37" si="0">H10+I10</f>
+        <f t="shared" ref="J10:J41" si="0">H10+I10</f>
         <v>705.70699999999999</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="23">
+        <v>642.20600000000002</v>
+      </c>
       <c r="L10" s="5">
         <v>1932.6429370000001</v>
       </c>
@@ -769,7 +776,7 @@
         <f t="shared" si="0"/>
         <v>757.37200000000007</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="23">
         <v>626.39499999999998</v>
       </c>
       <c r="L11" s="5">
@@ -799,7 +806,7 @@
         <f t="shared" si="0"/>
         <v>863.15100000000007</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>662.01700000000005</v>
       </c>
       <c r="L12" s="5">
@@ -829,7 +836,7 @@
         <f t="shared" si="0"/>
         <v>840.95299999999997</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="23">
         <v>656.33500000000004</v>
       </c>
       <c r="L13" s="5">
@@ -859,7 +866,7 @@
         <f t="shared" si="0"/>
         <v>543.53300000000002</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="23">
         <v>526.75199999999995</v>
       </c>
       <c r="L14" s="10">
@@ -879,10 +886,12 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="25">
+      <c r="K15" s="23">
         <v>616.94799999999998</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="10">
+        <v>1961.046934</v>
+      </c>
       <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -895,10 +904,12 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="25">
+      <c r="K16" s="23">
         <v>625.51199999999994</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="10">
+        <v>1957.453966</v>
+      </c>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
@@ -921,7 +932,7 @@
         <f t="shared" si="0"/>
         <v>953.65300000000002</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="23">
         <v>703.66600000000005</v>
       </c>
       <c r="L17" s="10">
@@ -951,7 +962,7 @@
         <f t="shared" si="0"/>
         <v>1123.675</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="23">
         <v>761.42499999999995</v>
       </c>
       <c r="L18" s="10">
@@ -981,7 +992,7 @@
         <f t="shared" si="0"/>
         <v>1266.674</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="23">
         <v>808.16200000000003</v>
       </c>
       <c r="L19" s="10">
@@ -1011,7 +1022,7 @@
         <f t="shared" si="0"/>
         <v>1522.346</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="23">
         <v>846.08900000000006</v>
       </c>
       <c r="L20" s="10">
@@ -1041,7 +1052,7 @@
         <f t="shared" si="0"/>
         <v>590.46100000000001</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <v>564.74800000000005</v>
       </c>
       <c r="L21" s="10">
@@ -1061,10 +1072,12 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <v>666.33199999999999</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10">
+        <v>2013.569117</v>
+      </c>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
@@ -1077,10 +1090,12 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="25">
+      <c r="K23" s="23">
         <v>685.05600000000004</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="10">
+        <v>2017.466784</v>
+      </c>
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
@@ -1103,7 +1118,7 @@
         <f t="shared" si="0"/>
         <v>1197.0350000000001</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="23">
         <v>782.79</v>
       </c>
       <c r="L24" s="10">
@@ -1133,7 +1148,7 @@
         <f t="shared" si="0"/>
         <v>1574.643</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="23">
         <v>898.65899999999999</v>
       </c>
       <c r="L25" s="10">
@@ -1163,7 +1178,7 @@
         <f t="shared" si="0"/>
         <v>2075.6350000000002</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="24">
         <v>981.93899999999996</v>
       </c>
       <c r="L26" s="10">
@@ -1193,7 +1208,7 @@
         <f t="shared" si="0"/>
         <v>2103.4920000000002</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="24">
         <v>1049.46</v>
       </c>
       <c r="L27" s="10">
@@ -1223,7 +1238,7 @@
         <f t="shared" si="0"/>
         <v>718.81400000000008</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="23">
         <v>768.41099999999994</v>
       </c>
       <c r="L28" s="10">
@@ -1237,90 +1252,62 @@
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="1">
-        <v>75</v>
-      </c>
-      <c r="G29">
-        <v>3210.42</v>
-      </c>
-      <c r="H29" s="5">
-        <v>753.78499999999997</v>
-      </c>
-      <c r="I29" s="5">
-        <v>2110.89</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>2864.6749999999997</v>
-      </c>
-      <c r="K29" s="26">
-        <v>1353.89</v>
-      </c>
-      <c r="L29" s="10">
-        <v>2371.4489939999999</v>
-      </c>
-      <c r="N29" s="13">
-        <v>2283.23</v>
-      </c>
+      <c r="F29" s="7">
+        <v>95</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="23">
+        <v>1031.78</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="1">
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <v>3090.74</v>
-      </c>
-      <c r="H30" s="5">
-        <v>816.76400000000001</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2707.01</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>3523.7740000000003</v>
-      </c>
-      <c r="K30" s="26">
-        <v>1545.82</v>
-      </c>
-      <c r="L30" s="10">
-        <v>2163.895845</v>
-      </c>
-      <c r="N30" s="2">
-        <v>2695.44</v>
-      </c>
+      <c r="F30" s="7">
+        <v>90</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="23">
+        <v>1139.8499999999999</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G31">
-        <v>2847.49</v>
+        <v>3210.42</v>
       </c>
       <c r="H31" s="5">
-        <v>922.89400000000001</v>
+        <v>753.78499999999997</v>
       </c>
       <c r="I31" s="5">
-        <v>2801.94</v>
+        <v>2110.89</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>3724.8339999999998</v>
-      </c>
-      <c r="K31" s="26">
-        <v>1619.56</v>
+        <v>2864.6749999999997</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1353.89</v>
       </c>
       <c r="L31" s="10">
-        <v>2022.686958</v>
-      </c>
-      <c r="N31" s="2">
-        <v>2776.84</v>
+        <v>2371.4489939999999</v>
+      </c>
+      <c r="N31" s="13">
+        <v>2283.23</v>
       </c>
     </row>
     <row r="32" spans="5:14" x14ac:dyDescent="0.25">
@@ -1328,148 +1315,253 @@
         <v>18</v>
       </c>
       <c r="F32" s="1">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>3090.74</v>
+      </c>
+      <c r="H32" s="5">
+        <v>816.76400000000001</v>
+      </c>
+      <c r="I32" s="5">
+        <v>2707.01</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>3523.7740000000003</v>
+      </c>
+      <c r="K32" s="24">
+        <v>1545.82</v>
+      </c>
+      <c r="L32" s="10">
+        <v>2163.895845</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2695.44</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>2847.49</v>
+      </c>
+      <c r="H33" s="5">
+        <v>922.89400000000001</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2801.94</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>3724.8339999999998</v>
+      </c>
+      <c r="K33" s="24">
+        <v>1619.56</v>
+      </c>
+      <c r="L33" s="10">
+        <v>2022.686958</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2776.84</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>2742.1</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H34" s="5">
         <v>1012.07</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I34" s="5">
         <v>2161.9699999999998</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>3174.04</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K34" s="24">
         <v>1639.2</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L34" s="10">
         <v>1894.1359520000001</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N34" s="2">
         <v>2589.66</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="6" t="s">
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F35" s="6">
         <v>100</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>2674.19</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H35" s="5">
         <v>324.39</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I35" s="5">
         <v>362.67500000000001</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J35" s="18">
         <f t="shared" si="0"/>
         <v>687.06500000000005</v>
       </c>
-      <c r="L33" s="10">
+      <c r="K35" s="24">
+        <v>629.47199999999998</v>
+      </c>
+      <c r="L35" s="10">
         <v>2233.7570190000001</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="1">
-        <v>75</v>
-      </c>
-      <c r="G34">
-        <v>2606.83</v>
-      </c>
-      <c r="H34" s="5">
-        <v>705.303</v>
-      </c>
-      <c r="I34" s="5">
-        <v>1259.3</v>
-      </c>
-      <c r="J34" s="18">
-        <f t="shared" si="0"/>
-        <v>1964.6030000000001</v>
-      </c>
-      <c r="L34" s="10">
-        <v>2092.8738119999998</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="1">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>2505.92</v>
-      </c>
-      <c r="H35" s="5">
-        <v>742.76</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1988.75</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="0"/>
-        <v>2731.51</v>
-      </c>
-      <c r="L35" s="10">
-        <v>2039.6358970000001</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="1">
-        <v>25</v>
-      </c>
-      <c r="G36">
-        <v>2456.61</v>
-      </c>
-      <c r="H36" s="5">
-        <v>790.20500000000004</v>
-      </c>
-      <c r="I36" s="5">
-        <v>2268.25</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="0"/>
-        <v>3058.4549999999999</v>
-      </c>
-      <c r="L36" s="10">
-        <v>1968.4400559999999</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F36" s="7">
+        <v>95</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="24">
+        <v>817.99599999999998</v>
+      </c>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="7">
+        <v>90</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="24">
+        <v>888.75800000000004</v>
+      </c>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="1">
+        <v>75</v>
+      </c>
+      <c r="G38">
+        <v>2606.83</v>
+      </c>
+      <c r="H38" s="5">
+        <v>705.303</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1259.3</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="0"/>
+        <v>1964.6030000000001</v>
+      </c>
+      <c r="K38" s="24">
+        <v>1047.76</v>
+      </c>
+      <c r="L38" s="10">
+        <v>2092.8738119999998</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="1">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>2505.92</v>
+      </c>
+      <c r="H39" s="5">
+        <v>742.76</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1988.75</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="0"/>
+        <v>2731.51</v>
+      </c>
+      <c r="K39" s="24">
+        <v>1217.44</v>
+      </c>
+      <c r="L39" s="10">
+        <v>2039.6358970000001</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>2456.61</v>
+      </c>
+      <c r="H40" s="5">
+        <v>790.20500000000004</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2268.25</v>
+      </c>
+      <c r="J40" s="17">
+        <f t="shared" si="0"/>
+        <v>3058.4549999999999</v>
+      </c>
+      <c r="K40" s="24">
+        <v>1296.3900000000001</v>
+      </c>
+      <c r="L40" s="10">
+        <v>1968.4400559999999</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G41">
         <v>2755</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H41" s="5">
         <v>777.33</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I41" s="5">
         <v>2374.62</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J41" s="17">
         <f t="shared" si="0"/>
         <v>3151.95</v>
       </c>
-      <c r="L37" s="10">
+      <c r="K41" s="24">
+        <v>1357.46</v>
+      </c>
+      <c r="L41" s="10">
         <v>1910.037994</v>
       </c>
     </row>
@@ -1485,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,19 +1615,19 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1556,7 +1648,7 @@
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1586,7 +1678,7 @@
         <f>G7+H7</f>
         <v>85.771000000000001</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>82.656000000000006</v>
       </c>
       <c r="K7" s="11">
@@ -1603,10 +1695,12 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="25">
+      <c r="J8" s="23">
         <v>84.427999999999997</v>
       </c>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11">
+        <v>349.475145</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -1618,10 +1712,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>198.89599999999999</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11">
+        <v>349.89499999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
@@ -1643,7 +1739,7 @@
         <f t="shared" ref="I10:I27" si="0">G10+H10</f>
         <v>262.80099999999999</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>209.18100000000001</v>
       </c>
       <c r="K10" s="11">
@@ -1670,7 +1766,7 @@
         <f t="shared" si="0"/>
         <v>271.245</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>212.386</v>
       </c>
       <c r="K11" s="11">
@@ -1697,7 +1793,7 @@
         <f t="shared" si="0"/>
         <v>305.90600000000001</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>240.38499999999999</v>
       </c>
       <c r="K12" s="11">
@@ -1724,7 +1820,7 @@
         <f t="shared" si="0"/>
         <v>291.16200000000003</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <v>250.303</v>
       </c>
       <c r="K13" s="11">
@@ -1751,7 +1847,7 @@
         <f t="shared" si="0"/>
         <v>108.715</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>100.104</v>
       </c>
       <c r="K14" s="11">
@@ -1768,10 +1864,12 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>144.59</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11">
+        <v>358.88504999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
@@ -1783,10 +1881,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>194.28299999999999</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11">
+        <v>361.001015</v>
+      </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
@@ -1808,7 +1908,7 @@
         <f t="shared" si="0"/>
         <v>341.685</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <v>278.209</v>
       </c>
       <c r="K17" s="11">
@@ -1835,7 +1935,7 @@
         <f t="shared" si="0"/>
         <v>465.36399999999998</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <v>382.72</v>
       </c>
       <c r="K18" s="11">
@@ -1862,7 +1962,7 @@
         <f t="shared" si="0"/>
         <v>751.28500000000008</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>571.02200000000005</v>
       </c>
       <c r="K19" s="11">
@@ -1889,7 +1989,7 @@
         <f t="shared" si="0"/>
         <v>811.72699999999998</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="22">
         <v>677.91700000000003</v>
       </c>
       <c r="K20" s="11">
@@ -1916,7 +2016,7 @@
         <f t="shared" si="0"/>
         <v>248.19299999999998</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>165.6</v>
       </c>
       <c r="K21" s="11">
@@ -1933,10 +2033,12 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>190.97200000000001</v>
       </c>
-      <c r="K22" s="11"/>
+      <c r="K22" s="11">
+        <v>376.55210499999998</v>
+      </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
@@ -1948,10 +2050,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <v>232.50800000000001</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="11">
+        <v>373.84009400000002</v>
+      </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
@@ -1973,7 +2077,7 @@
         <f t="shared" si="0"/>
         <v>532.83199999999999</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="22">
         <v>438.09699999999998</v>
       </c>
       <c r="K24" s="11">
@@ -2000,7 +2104,7 @@
         <f t="shared" si="0"/>
         <v>913.27</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>690.36800000000005</v>
       </c>
       <c r="K25" s="11">
@@ -2027,7 +2131,7 @@
         <f t="shared" si="0"/>
         <v>1078.2650000000001</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <v>916.44</v>
       </c>
       <c r="K26" s="11">
@@ -2054,7 +2158,7 @@
         <f t="shared" si="0"/>
         <v>1266.0409999999999</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="22">
         <v>1090.1300000000001</v>
       </c>
       <c r="K27" s="11">
@@ -2078,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,19 +2220,19 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2149,7 +2253,7 @@
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2179,7 +2283,7 @@
         <f>G7+H7</f>
         <v>109.721</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>127.485</v>
       </c>
       <c r="K7" s="10">
@@ -2196,10 +2300,12 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="25">
+      <c r="J8" s="23">
         <v>126.848</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10">
+        <v>374.66502200000002</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -2211,10 +2317,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>151.02600000000001</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10">
+        <v>372.29609499999998</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
@@ -2236,7 +2344,7 @@
         <f t="shared" ref="I10:I27" si="0">G10+H10</f>
         <v>177.91200000000001</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>157.47499999999999</v>
       </c>
       <c r="K10" s="10">
@@ -2263,7 +2371,7 @@
         <f t="shared" si="0"/>
         <v>208.32499999999999</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>186.27099999999999</v>
       </c>
       <c r="K11" s="10">
@@ -2290,7 +2398,7 @@
         <f t="shared" si="0"/>
         <v>233.274</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>203.505</v>
       </c>
       <c r="K12" s="10">
@@ -2317,7 +2425,7 @@
         <f t="shared" si="0"/>
         <v>227.28100000000001</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <v>224.773</v>
       </c>
       <c r="K13" s="10">
@@ -2344,7 +2452,7 @@
         <f t="shared" si="0"/>
         <v>145.626</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>138.00399999999999</v>
       </c>
       <c r="K14" s="10">
@@ -2361,10 +2469,12 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>157.74</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="10">
+        <v>392.77410500000002</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
@@ -2376,10 +2486,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>203.446</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="10">
+        <v>387.97783900000002</v>
+      </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
@@ -2401,7 +2513,7 @@
         <f t="shared" si="0"/>
         <v>289.38499999999999</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <v>259.26499999999999</v>
       </c>
       <c r="K17" s="10">
@@ -2428,7 +2540,7 @@
         <f t="shared" si="0"/>
         <v>404.05599999999998</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <v>329.76499999999999</v>
       </c>
       <c r="K18" s="10">
@@ -2455,7 +2567,7 @@
         <f t="shared" si="0"/>
         <v>459.66399999999999</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>423.96300000000002</v>
       </c>
       <c r="K19" s="10">
@@ -2482,7 +2594,7 @@
         <f t="shared" si="0"/>
         <v>573.60199999999998</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="22">
         <v>516.24300000000005</v>
       </c>
       <c r="K20" s="10">
@@ -2509,7 +2621,7 @@
         <f t="shared" si="0"/>
         <v>217.761</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>153.535</v>
       </c>
       <c r="K21" s="10">
@@ -2526,10 +2638,12 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>193.91200000000001</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="10">
+        <v>408.863068</v>
+      </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
@@ -2541,10 +2655,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <v>223.68199999999999</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="10">
+        <v>402.95910800000001</v>
+      </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
@@ -2566,7 +2682,7 @@
         <f t="shared" si="0"/>
         <v>421.11600000000004</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="24">
         <v>365.81900000000002</v>
       </c>
       <c r="K24" s="10">
@@ -2593,7 +2709,7 @@
         <f t="shared" si="0"/>
         <v>637.60699999999997</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>516.84</v>
       </c>
       <c r="K25" s="10">
@@ -2620,7 +2736,7 @@
         <f t="shared" si="0"/>
         <v>841.49699999999996</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <v>717.70500000000004</v>
       </c>
       <c r="K26" s="10">
@@ -2647,7 +2763,7 @@
         <f t="shared" si="0"/>
         <v>999.3420000000001</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="22">
         <v>872.64200000000005</v>
       </c>
       <c r="K27" s="10">
@@ -2670,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,19 +2823,19 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2740,7 +2856,7 @@
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2770,7 +2886,7 @@
         <f>G7+H7</f>
         <v>82.490000000000009</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>87.2</v>
       </c>
       <c r="K7" s="10">
@@ -2787,10 +2903,12 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="25">
+      <c r="J8" s="23">
         <v>68.695999999999998</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10">
+        <v>394.96493299999997</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -2802,10 +2920,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>105.474</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10">
+        <v>324.52797900000002</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
@@ -2827,7 +2947,7 @@
         <f t="shared" ref="I10:I27" si="0">G10+H10</f>
         <v>126.277</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>117.27</v>
       </c>
       <c r="K10" s="10">
@@ -2854,7 +2974,7 @@
         <f t="shared" si="0"/>
         <v>138.19999999999999</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>125.307</v>
       </c>
       <c r="K11" s="10">
@@ -2881,7 +3001,7 @@
         <f t="shared" si="0"/>
         <v>139.166</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>135.995</v>
       </c>
       <c r="K12" s="10">
@@ -2908,7 +3028,7 @@
         <f t="shared" si="0"/>
         <v>151.92099999999999</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <v>139.63999999999999</v>
       </c>
       <c r="K13" s="10">
@@ -2935,7 +3055,7 @@
         <f t="shared" si="0"/>
         <v>188.66399999999999</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>111.047</v>
       </c>
       <c r="K14" s="10">
@@ -2952,11 +3072,11 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>103.584</v>
       </c>
       <c r="K15" s="10">
-        <v>338.99498</v>
+        <v>339.76101899999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2969,10 +3089,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>138.92400000000001</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="10">
+        <v>349.43699800000002</v>
+      </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
@@ -2994,7 +3116,7 @@
         <f t="shared" si="0"/>
         <v>190.21899999999999</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <v>178.018</v>
       </c>
       <c r="K17" s="10">
@@ -3021,7 +3143,7 @@
         <f t="shared" si="0"/>
         <v>268.22199999999998</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <v>219.404</v>
       </c>
       <c r="K18" s="10">
@@ -3048,7 +3170,7 @@
         <f t="shared" si="0"/>
         <v>287.23099999999999</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="23">
         <v>254.53700000000001</v>
       </c>
       <c r="K19" s="10">
@@ -3075,7 +3197,7 @@
         <f t="shared" si="0"/>
         <v>314.94100000000003</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <v>295.43299999999999</v>
       </c>
       <c r="K20" s="10">
@@ -3102,7 +3224,7 @@
         <f t="shared" si="0"/>
         <v>163.41800000000001</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>127.396</v>
       </c>
       <c r="K21" s="10">
@@ -3119,10 +3241,12 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>131.995</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="10">
+        <v>365.03195799999997</v>
+      </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
@@ -3134,10 +3258,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <v>148.333</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="10">
+        <v>355.24988200000001</v>
+      </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
@@ -3159,7 +3285,7 @@
         <f t="shared" si="0"/>
         <v>283.02800000000002</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="23">
         <v>252.81700000000001</v>
       </c>
       <c r="K24" s="10">
@@ -3186,7 +3312,7 @@
         <f t="shared" si="0"/>
         <v>371.57799999999997</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="24">
         <v>317.96699999999998</v>
       </c>
       <c r="K25" s="10">
@@ -3213,7 +3339,7 @@
         <f t="shared" si="0"/>
         <v>491.49699999999996</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <v>393.30900000000003</v>
       </c>
       <c r="K26" s="10">
@@ -3240,7 +3366,7 @@
         <f t="shared" si="0"/>
         <v>505.45800000000003</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="22">
         <v>486.31200000000001</v>
       </c>
       <c r="K27" s="10">
@@ -3277,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,19 +3441,19 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3348,7 +3474,7 @@
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -3378,7 +3504,7 @@
         <f>G6+H6</f>
         <v>235.07599999999999</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <v>251.50399999999999</v>
       </c>
       <c r="K6" s="10">
@@ -3395,10 +3521,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>239.649</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="10">
+        <v>676.38206500000001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -3410,10 +3538,12 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="25">
+      <c r="J8" s="23">
         <v>188.86</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10">
+        <v>680.71699100000001</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -3432,10 +3562,10 @@
         <v>53.125999999999998</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" ref="I9:I36" si="0">G9+H9</f>
+        <f t="shared" ref="I9:I40" si="0">G9+H9</f>
         <v>301.26099999999997</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>276.47300000000001</v>
       </c>
       <c r="K9" s="10">
@@ -3462,7 +3592,7 @@
         <f t="shared" si="0"/>
         <v>307.63900000000001</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>281.81299999999999</v>
       </c>
       <c r="K10" s="10">
@@ -3489,7 +3619,7 @@
         <f t="shared" si="0"/>
         <v>311.00600000000003</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>288.77300000000002</v>
       </c>
       <c r="K11" s="10">
@@ -3516,7 +3646,7 @@
         <f t="shared" si="0"/>
         <v>311.077</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>287.84800000000001</v>
       </c>
       <c r="K12" s="10">
@@ -3543,7 +3673,7 @@
         <f t="shared" si="0"/>
         <v>331.48899999999998</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <v>294.27800000000002</v>
       </c>
       <c r="K13" s="10">
@@ -3560,10 +3690,12 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>266.72699999999998</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="10">
+        <v>710.12520800000004</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
@@ -3575,10 +3707,12 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>277.84300000000002</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="10">
+        <v>699.57899999999995</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
@@ -3600,7 +3734,7 @@
         <f t="shared" si="0"/>
         <v>372.46300000000002</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>347.34</v>
       </c>
       <c r="K16" s="10">
@@ -3627,7 +3761,7 @@
         <f t="shared" si="0"/>
         <v>396.13200000000001</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <v>364.74599999999998</v>
       </c>
       <c r="K17" s="10">
@@ -3654,7 +3788,7 @@
         <f t="shared" si="0"/>
         <v>437.83000000000004</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <v>405.74700000000001</v>
       </c>
       <c r="K18" s="10">
@@ -3681,7 +3815,7 @@
         <f t="shared" si="0"/>
         <v>464.84500000000003</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="23">
         <v>427.05</v>
       </c>
       <c r="K19" s="10">
@@ -3708,7 +3842,7 @@
         <f t="shared" si="0"/>
         <v>299.72500000000002</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <v>319.27800000000002</v>
       </c>
       <c r="K20" s="10">
@@ -3725,10 +3859,12 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>293.69400000000002</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="10">
+        <v>715.36183400000004</v>
+      </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
@@ -3740,10 +3876,12 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>311.05799999999999</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="10">
+        <v>710.63995399999999</v>
+      </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
@@ -3765,7 +3903,7 @@
         <f t="shared" si="0"/>
         <v>436.90600000000001</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <v>411.48500000000001</v>
       </c>
       <c r="K23" s="10">
@@ -3792,7 +3930,7 @@
         <f t="shared" si="0"/>
         <v>517.62400000000002</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="23">
         <v>476.44600000000003</v>
       </c>
       <c r="K24" s="10">
@@ -3819,7 +3957,7 @@
         <f t="shared" si="0"/>
         <v>579.928</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="23">
         <v>532.00900000000001</v>
       </c>
       <c r="K25" s="10">
@@ -3846,7 +3984,7 @@
         <f t="shared" si="0"/>
         <v>623.73299999999995</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="23">
         <v>602.89700000000005</v>
       </c>
       <c r="K26" s="10">
@@ -3873,7 +4011,7 @@
         <f t="shared" si="0"/>
         <v>505.25799999999998</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="23">
         <v>414.65499999999997</v>
       </c>
       <c r="K27" s="10">
@@ -3884,81 +4022,57 @@
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="1">
-        <v>75</v>
-      </c>
-      <c r="F28">
-        <v>1716.26</v>
-      </c>
-      <c r="G28" s="5">
-        <v>844.21299999999997</v>
-      </c>
-      <c r="H28" s="5">
-        <v>329.899</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
-        <v>1174.1120000000001</v>
-      </c>
-      <c r="J28" s="24">
-        <v>918.93600000000004</v>
-      </c>
-      <c r="K28" s="10">
-        <v>803.34997199999998</v>
-      </c>
+      <c r="E28" s="7">
+        <v>95</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="23">
+        <v>558.92899999999997</v>
+      </c>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="1">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>1635.6</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1101.04</v>
-      </c>
-      <c r="H29" s="5">
-        <v>345.05799999999999</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="0"/>
-        <v>1446.098</v>
-      </c>
-      <c r="J29" s="24">
-        <v>1229.74</v>
-      </c>
-      <c r="K29" s="10">
-        <v>777.82893200000001</v>
-      </c>
+      <c r="E29" s="7">
+        <v>90</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="23">
+        <v>657.96400000000006</v>
+      </c>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F30">
-        <v>1541.79</v>
+        <v>1716.26</v>
       </c>
       <c r="G30" s="5">
-        <v>1375.86</v>
+        <v>844.21299999999997</v>
       </c>
       <c r="H30" s="5">
-        <v>321.63299999999998</v>
+        <v>329.899</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>1697.4929999999999</v>
-      </c>
-      <c r="J30" s="24">
-        <v>1537.2</v>
+        <v>1174.1120000000001</v>
+      </c>
+      <c r="J30" s="22">
+        <v>918.93600000000004</v>
       </c>
       <c r="K30" s="10">
-        <v>598.42586500000004</v>
+        <v>803.34997199999998</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.25">
@@ -3966,145 +4080,244 @@
         <v>18</v>
       </c>
       <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>1635.6</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1101.04</v>
+      </c>
+      <c r="H31" s="5">
+        <v>345.05799999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>1446.098</v>
+      </c>
+      <c r="J31" s="22">
+        <v>1229.74</v>
+      </c>
+      <c r="K31" s="10">
+        <v>777.82893200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>1541.79</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1375.86</v>
+      </c>
+      <c r="H32" s="5">
+        <v>321.63299999999998</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>1697.4929999999999</v>
+      </c>
+      <c r="J32" s="22">
+        <v>1537.2</v>
+      </c>
+      <c r="K32" s="10">
+        <v>598.42586500000004</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <v>1438.45</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G33" s="5">
         <v>1749.7</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H33" s="5">
         <v>278.80599999999998</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I33" s="2">
         <f t="shared" si="0"/>
         <v>2028.5060000000001</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J33" s="22">
         <v>1784.39</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K33" s="10">
         <v>525.43091800000002</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="6">
-        <v>100</v>
-      </c>
-      <c r="F32">
-        <v>1373.87</v>
-      </c>
-      <c r="G32" s="5">
-        <v>168.40199999999999</v>
-      </c>
-      <c r="H32" s="5">
-        <v>266.73899999999998</v>
-      </c>
-      <c r="I32" s="18">
-        <f t="shared" si="0"/>
-        <v>435.14099999999996</v>
-      </c>
-      <c r="K32" s="10">
-        <v>858.44302200000004</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="1">
-        <v>75</v>
-      </c>
-      <c r="F33">
-        <v>1459.23</v>
-      </c>
-      <c r="G33" s="5">
-        <v>532.85900000000004</v>
-      </c>
-      <c r="H33" s="5">
-        <v>96.248999999999995</v>
-      </c>
-      <c r="I33" s="18">
-        <f t="shared" si="0"/>
-        <v>629.10800000000006</v>
-      </c>
-      <c r="K33" s="10">
-        <v>746.59013700000003</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="1">
-        <v>50</v>
+      <c r="E34" s="6">
+        <v>100</v>
       </c>
       <c r="F34">
-        <v>1345.02</v>
+        <v>1373.87</v>
       </c>
       <c r="G34" s="5">
-        <v>730.05</v>
+        <v>168.40199999999999</v>
       </c>
       <c r="H34" s="5">
-        <v>263.88</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="0"/>
-        <v>993.93</v>
+        <v>266.73899999999998</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="0"/>
+        <v>435.14099999999996</v>
+      </c>
+      <c r="J34" s="22">
+        <v>553.53700000000003</v>
       </c>
       <c r="K34" s="10">
-        <v>695.95599200000004</v>
+        <v>858.44302200000004</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="1">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <v>1280.42</v>
-      </c>
-      <c r="G35" s="5">
-        <v>796.47</v>
-      </c>
-      <c r="H35" s="5">
-        <v>255.392</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="0"/>
-        <v>1051.8620000000001</v>
-      </c>
-      <c r="K35" s="10">
-        <v>642.16303800000003</v>
-      </c>
+      <c r="E35" s="7">
+        <v>95</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="22">
+        <v>428.82299999999998</v>
+      </c>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
+        <v>90</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="22">
+        <v>487.07900000000001</v>
+      </c>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1">
+        <v>75</v>
+      </c>
+      <c r="F37">
+        <v>1459.23</v>
+      </c>
+      <c r="G37" s="5">
+        <v>532.85900000000004</v>
+      </c>
+      <c r="H37" s="5">
+        <v>96.248999999999995</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="0"/>
+        <v>629.10800000000006</v>
+      </c>
+      <c r="J37" s="22">
+        <v>555.06899999999996</v>
+      </c>
+      <c r="K37" s="10">
+        <v>746.59013700000003</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>1345.02</v>
+      </c>
+      <c r="G38" s="5">
+        <v>730.05</v>
+      </c>
+      <c r="H38" s="5">
+        <v>263.88</v>
+      </c>
+      <c r="I38" s="17">
+        <f t="shared" si="0"/>
+        <v>993.93</v>
+      </c>
+      <c r="J38" s="22">
+        <v>782.66099999999994</v>
+      </c>
+      <c r="K38" s="10">
+        <v>695.95599200000004</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>1280.42</v>
+      </c>
+      <c r="G39" s="5">
+        <v>796.47</v>
+      </c>
+      <c r="H39" s="5">
+        <v>255.392</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="0"/>
+        <v>1051.8620000000001</v>
+      </c>
+      <c r="J39" s="27">
+        <v>951.03599999999994</v>
+      </c>
+      <c r="K39" s="10">
+        <v>642.16303800000003</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>1173.3399999999999</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G40" s="5">
         <v>1006.97</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H40" s="5">
         <v>253.054</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I40" s="17">
         <f t="shared" si="0"/>
         <v>1260.0240000000001</v>
       </c>
-      <c r="K36" s="10">
+      <c r="J40" s="22">
+        <v>1082.1400000000001</v>
+      </c>
+      <c r="K40" s="10">
         <v>584.09690899999998</v>
       </c>
     </row>
@@ -4158,17 +4371,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">

--- a/Results/Results/result analysis_Latest.xlsx
+++ b/Results/Results/result analysis_Latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="RMAT24" sheetId="1" r:id="rId1"/>
@@ -283,13 +283,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,12 +611,12 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="15" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1440,9 @@
       <c r="K36" s="24">
         <v>817.99599999999998</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="10">
+        <v>2114.4611839999998</v>
+      </c>
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" s="7" t="s">
@@ -1455,7 +1457,9 @@
       <c r="K37" s="24">
         <v>888.75800000000004</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="10">
+        <v>2123.6479279999999</v>
+      </c>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E38" s="7" t="s">
@@ -1615,12 +1619,12 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="15" t="s">
         <v>27</v>
       </c>
@@ -2220,12 +2224,12 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="15" t="s">
         <v>27</v>
       </c>
@@ -2823,12 +2827,12 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="15" t="s">
         <v>27</v>
       </c>
@@ -3405,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,12 +3445,12 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="15" t="s">
         <v>27</v>
       </c>
@@ -4196,7 +4200,9 @@
       <c r="J35" s="22">
         <v>428.82299999999998</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="10">
+        <v>792.38009499999998</v>
+      </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="7" t="s">
@@ -4287,7 +4293,7 @@
         <f t="shared" si="0"/>
         <v>1051.8620000000001</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="25">
         <v>951.03599999999994</v>
       </c>
       <c r="K39" s="10">
@@ -4371,17 +4377,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">

--- a/Results/Results/result analysis_Latest.xlsx
+++ b/Results/Results/result analysis_Latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RMAT24" sheetId="1" r:id="rId1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1261,9 @@
       <c r="K29" s="23">
         <v>1031.78</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="10">
+        <v>2373.2349869999998</v>
+      </c>
       <c r="N29" s="13"/>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
@@ -1277,7 +1279,9 @@
       <c r="K30" s="23">
         <v>1139.8499999999999</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="10">
+        <v>2340.8870700000002</v>
+      </c>
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
@@ -3409,8 +3413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4035,7 +4039,9 @@
       <c r="J28" s="23">
         <v>558.92899999999997</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="10">
+        <v>887.94016799999997</v>
+      </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
@@ -4050,7 +4056,9 @@
       <c r="J29" s="23">
         <v>657.96400000000006</v>
       </c>
-      <c r="K29" s="10"/>
+      <c r="K29" s="10">
+        <v>991.88280099999997</v>
+      </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
@@ -4180,7 +4188,7 @@
         <f t="shared" si="0"/>
         <v>435.14099999999996</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="24">
         <v>553.53700000000003</v>
       </c>
       <c r="K34" s="10">
@@ -4197,7 +4205,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="22">
+      <c r="J35" s="24">
         <v>428.82299999999998</v>
       </c>
       <c r="K35" s="10">
@@ -4214,10 +4222,12 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="22">
+      <c r="J36" s="24">
         <v>487.07900000000001</v>
       </c>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10">
+        <v>784.71398399999998</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="7" t="s">
@@ -4239,7 +4249,7 @@
         <f t="shared" si="0"/>
         <v>629.10800000000006</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="24">
         <v>555.06899999999996</v>
       </c>
       <c r="K37" s="10">

--- a/Results/Results/result analysis_Latest.xlsx
+++ b/Results/Results/result analysis_Latest.xlsx
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,12 +3413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
